--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>4.19742243518525</v>
+        <v>1245.337852130628</v>
       </c>
       <c r="R2">
-        <v>16.789689740741</v>
+        <v>7472.027112783765</v>
       </c>
       <c r="S2">
-        <v>0.00156818989104676</v>
+        <v>0.005271739351832424</v>
       </c>
       <c r="T2">
-        <v>0.0007863849460905669</v>
+        <v>0.003894329034508426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>663.0736813973716</v>
+        <v>51300.51385837673</v>
       </c>
       <c r="R3">
-        <v>3978.442088384229</v>
+        <v>307803.0831502604</v>
       </c>
       <c r="S3">
-        <v>0.2477295197810192</v>
+        <v>0.2171643118481727</v>
       </c>
       <c r="T3">
-        <v>0.1863397725335452</v>
+        <v>0.1604231978190306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>15.43440924446866</v>
+        <v>357.3189902078358</v>
       </c>
       <c r="R4">
-        <v>92.60645546681198</v>
+        <v>2143.913941247015</v>
       </c>
       <c r="S4">
-        <v>0.005766416157821434</v>
+        <v>0.001512595621029984</v>
       </c>
       <c r="T4">
-        <v>0.004337443014994831</v>
+        <v>0.00111738169346325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>24.07986590989883</v>
+        <v>428.2167645001863</v>
       </c>
       <c r="R5">
-        <v>144.479195459393</v>
+        <v>3853.950880501677</v>
       </c>
       <c r="S5">
-        <v>0.008996426469045221</v>
+        <v>0.00181271866479266</v>
       </c>
       <c r="T5">
-        <v>0.006767025840676962</v>
+        <v>0.002008632006410833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>187.223767</v>
       </c>
       <c r="I6">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J6">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>1.342800060885167</v>
+        <v>17639.9842211869</v>
       </c>
       <c r="R6">
-        <v>8.056800365311</v>
+        <v>158759.8579906821</v>
       </c>
       <c r="S6">
-        <v>0.0005016806179729098</v>
+        <v>0.07467322929712059</v>
       </c>
       <c r="T6">
-        <v>0.0003773593567702179</v>
+        <v>0.08274369393410951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>212.1243199845922</v>
+        <v>122.8662419756141</v>
       </c>
       <c r="R7">
-        <v>1909.11887986133</v>
+        <v>1105.796177780527</v>
       </c>
       <c r="S7">
-        <v>0.07925130705371199</v>
+        <v>0.0005201149244170475</v>
       </c>
       <c r="T7">
-        <v>0.08941811138875617</v>
+        <v>0.0005763274271330617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H8">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>4.937631604450222</v>
+        <v>1180.177738129272</v>
       </c>
       <c r="R8">
-        <v>44.438684440052</v>
+        <v>10621.59964316344</v>
       </c>
       <c r="S8">
-        <v>0.001844737833129272</v>
+        <v>0.004995904857150409</v>
       </c>
       <c r="T8">
-        <v>0.002081391199441169</v>
+        <v>0.00553584767010906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.40792233333334</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H9">
-        <v>187.223767</v>
+        <v>515.994095</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>7.703405103778111</v>
+        <v>48616.304649108</v>
       </c>
       <c r="R9">
-        <v>69.330645934003</v>
+        <v>437546.741841972</v>
       </c>
       <c r="S9">
-        <v>0.002878052470753921</v>
+        <v>0.2058015709719974</v>
       </c>
       <c r="T9">
-        <v>0.003247265262617587</v>
+        <v>0.2280440039884884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H10">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I10">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J10">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>3.073892618503667</v>
+        <v>338.6229021567439</v>
       </c>
       <c r="R10">
-        <v>18.443355711022</v>
+        <v>3047.606119410695</v>
       </c>
       <c r="S10">
-        <v>0.001148430353374227</v>
+        <v>0.001433451714068801</v>
       </c>
       <c r="T10">
-        <v>0.0008638383144953267</v>
+        <v>0.001588374990805535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H11">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I11">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J11">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>485.5878402149622</v>
+        <v>381.7973258185035</v>
       </c>
       <c r="R11">
-        <v>4370.290561934659</v>
+        <v>2290.783954911021</v>
       </c>
       <c r="S11">
-        <v>0.1814194196555118</v>
+        <v>0.001616216823007695</v>
       </c>
       <c r="T11">
-        <v>0.20469292530211</v>
+        <v>0.001193928546128149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>11.30305976587822</v>
+        <v>15727.77938993284</v>
       </c>
       <c r="R12">
-        <v>101.727537892904</v>
+        <v>94366.67633959705</v>
       </c>
       <c r="S12">
-        <v>0.004222911640763956</v>
+        <v>0.06657852195289324</v>
       </c>
       <c r="T12">
-        <v>0.00476465054668168</v>
+        <v>0.04918275616674507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>111.285591</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>17.63437519524511</v>
+        <v>109.5473286161785</v>
       </c>
       <c r="R13">
-        <v>158.709376757206</v>
+        <v>657.283971697071</v>
       </c>
       <c r="S13">
-        <v>0.006588340664569928</v>
+        <v>0.0004637335660888993</v>
       </c>
       <c r="T13">
-        <v>0.007433530137393394</v>
+        <v>0.00034256835745652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.01711450000001</v>
+        <v>203.386317</v>
       </c>
       <c r="H14">
-        <v>106.034229</v>
+        <v>610.158951</v>
       </c>
       <c r="I14">
-        <v>0.07176431814995911</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J14">
-        <v>0.05387357411601602</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N14">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O14">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P14">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q14">
-        <v>1.14074274413925</v>
+        <v>1395.550874841909</v>
       </c>
       <c r="R14">
-        <v>4.562970976557001</v>
+        <v>12559.95787357718</v>
       </c>
       <c r="S14">
-        <v>0.0004261904221620622</v>
+        <v>0.005907618122906424</v>
       </c>
       <c r="T14">
-        <v>0.0002137175695811419</v>
+        <v>0.00654609624416252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.01711450000001</v>
+        <v>203.386317</v>
       </c>
       <c r="H15">
-        <v>106.034229</v>
+        <v>610.158951</v>
       </c>
       <c r="I15">
-        <v>0.07176431814995911</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J15">
-        <v>0.05387357411601602</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N15">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O15">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P15">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q15">
-        <v>180.204995461785</v>
+        <v>57488.39712244413</v>
       </c>
       <c r="R15">
-        <v>1081.22997277071</v>
+        <v>517395.5741019972</v>
       </c>
       <c r="S15">
-        <v>0.06732599745749117</v>
+        <v>0.2433587358367464</v>
       </c>
       <c r="T15">
-        <v>0.05064197057707358</v>
+        <v>0.2696602375952692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.01711450000001</v>
+        <v>203.386317</v>
       </c>
       <c r="H16">
-        <v>106.034229</v>
+        <v>610.158951</v>
       </c>
       <c r="I16">
-        <v>0.07176431814995911</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J16">
-        <v>0.05387357411601602</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N16">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O16">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P16">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q16">
-        <v>4.194643409754</v>
+        <v>400.4189132523589</v>
       </c>
       <c r="R16">
-        <v>25.167860458524</v>
+        <v>3603.770219271231</v>
       </c>
       <c r="S16">
-        <v>0.001567151625383596</v>
+        <v>0.001695045355442239</v>
       </c>
       <c r="T16">
-        <v>0.001178796445646399</v>
+        <v>0.001878240909296723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,70 +1464,70 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>406.497635</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N17">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O17">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P17">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q17">
-        <v>6.544238217793501</v>
+        <v>929.7382742901316</v>
       </c>
       <c r="R17">
-        <v>39.26542930676101</v>
+        <v>8367.644468611184</v>
       </c>
       <c r="S17">
-        <v>0.002444978644922285</v>
+        <v>0.003935749514956473</v>
       </c>
       <c r="T17">
-        <v>0.001839089523714895</v>
+        <v>0.004361113833327091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.783834</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H18">
-        <v>431.351502</v>
+        <v>406.497635</v>
       </c>
       <c r="I18">
-        <v>0.1946267522348261</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J18">
-        <v>0.2191598631141254</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N18">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O18">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P18">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q18">
-        <v>3.093724864261</v>
+        <v>38299.6880270537</v>
       </c>
       <c r="R18">
-        <v>18.562349185566</v>
+        <v>344697.1922434833</v>
       </c>
       <c r="S18">
-        <v>0.001155839835691923</v>
+        <v>0.162129475298359</v>
       </c>
       <c r="T18">
-        <v>0.0008694116561418581</v>
+        <v>0.1796519557016464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.783834</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H19">
-        <v>431.351502</v>
+        <v>406.497635</v>
       </c>
       <c r="I19">
-        <v>0.1946267522348261</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J19">
-        <v>0.2191598631141254</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N19">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O19">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P19">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q19">
-        <v>488.7207724865533</v>
+        <v>266.7654731272705</v>
       </c>
       <c r="R19">
-        <v>4398.486952378979</v>
+        <v>2400.889258145435</v>
       </c>
       <c r="S19">
-        <v>0.1825899076856084</v>
+        <v>0.001129266279017522</v>
       </c>
       <c r="T19">
-        <v>0.2060135701336641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>143.783834</v>
-      </c>
-      <c r="H20">
-        <v>431.351502</v>
-      </c>
-      <c r="I20">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J20">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237356</v>
-      </c>
-      <c r="O20">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P20">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q20">
-        <v>11.37598523430133</v>
-      </c>
-      <c r="R20">
-        <v>102.383867108712</v>
-      </c>
-      <c r="S20">
-        <v>0.004250157166833081</v>
-      </c>
-      <c r="T20">
-        <v>0.004795391282392742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>143.783834</v>
-      </c>
-      <c r="H21">
-        <v>431.351502</v>
-      </c>
-      <c r="I21">
-        <v>0.1946267522348261</v>
-      </c>
-      <c r="J21">
-        <v>0.2191598631141254</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.370309</v>
-      </c>
-      <c r="O21">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P21">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q21">
-        <v>17.74814926156866</v>
-      </c>
-      <c r="R21">
-        <v>159.733343354118</v>
-      </c>
-      <c r="S21">
-        <v>0.006630847546692696</v>
-      </c>
-      <c r="T21">
-        <v>0.007481490041926784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H22">
-        <v>424.850525</v>
-      </c>
-      <c r="I22">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J22">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0215165</v>
-      </c>
-      <c r="N22">
-        <v>0.043033</v>
-      </c>
-      <c r="O22">
-        <v>0.005938751083393454</v>
-      </c>
-      <c r="P22">
-        <v>0.00396702043790345</v>
-      </c>
-      <c r="Q22">
-        <v>3.047098773720833</v>
-      </c>
-      <c r="R22">
-        <v>18.282592642325</v>
-      </c>
-      <c r="S22">
-        <v>0.001138419963145572</v>
-      </c>
-      <c r="T22">
-        <v>0.0008563085948243387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H23">
-        <v>424.850525</v>
-      </c>
-      <c r="I23">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J23">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>3.398996666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.19699</v>
-      </c>
-      <c r="O23">
-        <v>0.938154213585732</v>
-      </c>
-      <c r="P23">
-        <v>0.940015052055332</v>
-      </c>
-      <c r="Q23">
-        <v>481.3551727688611</v>
-      </c>
-      <c r="R23">
-        <v>4332.19655491975</v>
-      </c>
-      <c r="S23">
-        <v>0.1798380619523895</v>
-      </c>
-      <c r="T23">
-        <v>0.2029087021201829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H24">
-        <v>424.850525</v>
-      </c>
-      <c r="I24">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J24">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.237356</v>
-      </c>
-      <c r="O24">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P24">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q24">
-        <v>11.20453569021111</v>
-      </c>
-      <c r="R24">
-        <v>100.8408212119</v>
-      </c>
-      <c r="S24">
-        <v>0.004186102274570374</v>
-      </c>
-      <c r="T24">
-        <v>0.004723119067532491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>141.6168416666667</v>
-      </c>
-      <c r="H25">
-        <v>424.850525</v>
-      </c>
-      <c r="I25">
-        <v>0.1916934970264942</v>
-      </c>
-      <c r="J25">
-        <v>0.2158568649262854</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.370309</v>
-      </c>
-      <c r="O25">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P25">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q25">
-        <v>17.48066367358055</v>
-      </c>
-      <c r="R25">
-        <v>157.325973062225</v>
-      </c>
-      <c r="S25">
-        <v>0.006530912836388719</v>
-      </c>
-      <c r="T25">
-        <v>0.007368735143745637</v>
+        <v>0.0012513140819094</v>
       </c>
     </row>
   </sheetData>
